--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H2">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I2">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J2">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N2">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O2">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P2">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q2">
-        <v>0.1702387584206054</v>
+        <v>0.7644936220900002</v>
       </c>
       <c r="R2">
-        <v>0.1702387584206054</v>
+        <v>6.880442598810001</v>
       </c>
       <c r="S2">
-        <v>0.003314692170973607</v>
+        <v>0.00620056560862269</v>
       </c>
       <c r="T2">
-        <v>0.003314692170973607</v>
+        <v>0.006200565608622691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H3">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I3">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J3">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N3">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O3">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P3">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q3">
-        <v>0.1956057597439152</v>
+        <v>0.20116432842</v>
       </c>
       <c r="R3">
-        <v>0.1956057597439152</v>
+        <v>1.81047895578</v>
       </c>
       <c r="S3">
-        <v>0.003808609076075254</v>
+        <v>0.001631580147225728</v>
       </c>
       <c r="T3">
-        <v>0.003808609076075254</v>
+        <v>0.001631580147225728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H4">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I4">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J4">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N4">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O4">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P4">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q4">
-        <v>0.319900765930993</v>
+        <v>0.6610651842911112</v>
       </c>
       <c r="R4">
-        <v>0.319900765930993</v>
+        <v>5.94958665862</v>
       </c>
       <c r="S4">
-        <v>0.006228737651505202</v>
+        <v>0.005361690311512804</v>
       </c>
       <c r="T4">
-        <v>0.006228737651505202</v>
+        <v>0.005361690311512804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H5">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I5">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J5">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N5">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O5">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P5">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q5">
-        <v>0.2644318324343555</v>
+        <v>0.28905538893</v>
       </c>
       <c r="R5">
-        <v>0.2644318324343555</v>
+        <v>2.60149850037</v>
       </c>
       <c r="S5">
-        <v>0.005148710745180528</v>
+        <v>0.002344436698747781</v>
       </c>
       <c r="T5">
-        <v>0.005148710745180528</v>
+        <v>0.002344436698747782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H6">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I6">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J6">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N6">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O6">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P6">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q6">
-        <v>4.431670059536006</v>
+        <v>19.87807525522901</v>
       </c>
       <c r="R6">
-        <v>4.431670059536006</v>
+        <v>178.902677297061</v>
       </c>
       <c r="S6">
-        <v>0.086288352822621</v>
+        <v>0.1612247718381573</v>
       </c>
       <c r="T6">
-        <v>0.086288352822621</v>
+        <v>0.1612247718381573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H7">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I7">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J7">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N7">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O7">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P7">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q7">
-        <v>5.092026028456861</v>
+        <v>5.230599109602001</v>
       </c>
       <c r="R7">
-        <v>5.092026028456861</v>
+        <v>47.075391986418</v>
       </c>
       <c r="S7">
-        <v>0.09914604034657275</v>
+        <v>0.04242373253922646</v>
       </c>
       <c r="T7">
-        <v>0.09914604034657275</v>
+        <v>0.04242373253922645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H8">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I8">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J8">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N8">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O8">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P8">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q8">
-        <v>8.327684362548915</v>
+        <v>17.18876796646911</v>
       </c>
       <c r="R8">
-        <v>8.327684362548915</v>
+        <v>154.698911698222</v>
       </c>
       <c r="S8">
-        <v>0.1621470364033101</v>
+        <v>0.1394126522810109</v>
       </c>
       <c r="T8">
-        <v>0.1621470364033101</v>
+        <v>0.1394126522810109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H9">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I9">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J9">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N9">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O9">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P9">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q9">
-        <v>6.883712295952305</v>
+        <v>7.515909365433001</v>
       </c>
       <c r="R9">
-        <v>6.883712295952305</v>
+        <v>67.643184288897</v>
       </c>
       <c r="S9">
-        <v>0.1340316827161851</v>
+        <v>0.06095916013193727</v>
       </c>
       <c r="T9">
-        <v>0.1340316827161851</v>
+        <v>0.06095916013193727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H10">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I10">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J10">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N10">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O10">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P10">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q10">
-        <v>3.183199366371355</v>
+        <v>21.378701276769</v>
       </c>
       <c r="R10">
-        <v>3.183199366371355</v>
+        <v>192.408311490921</v>
       </c>
       <c r="S10">
-        <v>0.06197957572205933</v>
+        <v>0.1733958741622389</v>
       </c>
       <c r="T10">
-        <v>0.06197957572205933</v>
+        <v>0.1733958741622389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H11">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I11">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J11">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N11">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O11">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P11">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q11">
-        <v>3.657522741895501</v>
+        <v>5.625464962122001</v>
       </c>
       <c r="R11">
-        <v>3.657522741895501</v>
+        <v>50.629184659098</v>
       </c>
       <c r="S11">
-        <v>0.07121505179076497</v>
+        <v>0.04562636439174799</v>
       </c>
       <c r="T11">
-        <v>0.07121505179076497</v>
+        <v>0.04562636439174798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H12">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I12">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J12">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N12">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O12">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P12">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q12">
-        <v>5.981645571552724</v>
+        <v>18.48637410577134</v>
       </c>
       <c r="R12">
-        <v>5.981645571552724</v>
+        <v>166.377366951942</v>
       </c>
       <c r="S12">
-        <v>0.1164676829736847</v>
+        <v>0.149937124648614</v>
       </c>
       <c r="T12">
-        <v>0.1164676829736847</v>
+        <v>0.149937124648614</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H13">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I13">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J13">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N13">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O13">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P13">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q13">
-        <v>4.944462995752055</v>
+        <v>8.083296752013</v>
       </c>
       <c r="R13">
-        <v>4.944462995752055</v>
+        <v>72.749670768117</v>
       </c>
       <c r="S13">
-        <v>0.09627286367535152</v>
+        <v>0.06556105949949023</v>
       </c>
       <c r="T13">
-        <v>0.09627286367535152</v>
+        <v>0.06556105949949023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H14">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I14">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J14">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N14">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O14">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P14">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q14">
-        <v>1.416613999846227</v>
+        <v>7.179412160967001</v>
       </c>
       <c r="R14">
-        <v>1.416613999846227</v>
+        <v>64.61470944870301</v>
       </c>
       <c r="S14">
-        <v>0.02758266905930127</v>
+        <v>0.05822993789499371</v>
       </c>
       <c r="T14">
-        <v>0.02758266905930127</v>
+        <v>0.05822993789499372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H15">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I15">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J15">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N15">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O15">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P15">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q15">
-        <v>1.627701354700719</v>
+        <v>1.889148037446</v>
       </c>
       <c r="R15">
-        <v>1.627701354700719</v>
+        <v>17.002332337014</v>
       </c>
       <c r="S15">
-        <v>0.031692717846188</v>
+        <v>0.01532228132729368</v>
       </c>
       <c r="T15">
-        <v>0.031692717846188</v>
+        <v>0.01532228132729368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H16">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I16">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J16">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N16">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O16">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P16">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q16">
-        <v>2.662001930604565</v>
+        <v>6.208108591300666</v>
       </c>
       <c r="R16">
-        <v>2.662001930604565</v>
+        <v>55.872977321706</v>
       </c>
       <c r="S16">
-        <v>0.05183142217644118</v>
+        <v>0.0503520023104683</v>
       </c>
       <c r="T16">
-        <v>0.05183142217644118</v>
+        <v>0.05035200231046831</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H17">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I17">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J17">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N17">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O17">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P17">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q17">
-        <v>2.200426267830199</v>
+        <v>2.714539028859</v>
       </c>
       <c r="R17">
-        <v>2.200426267830199</v>
+        <v>24.430851259731</v>
       </c>
       <c r="S17">
-        <v>0.04284415482378551</v>
+        <v>0.02201676620871225</v>
       </c>
       <c r="T17">
-        <v>0.04284415482378551</v>
+        <v>0.02201676620871226</v>
       </c>
     </row>
   </sheetData>
